--- a/Employee_Reports35/Wali Mohammed Sabry Q0538.xlsx
+++ b/Employee_Reports35/Wali Mohammed Sabry Q0538.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="59" customWidth="1" min="2" max="2"/>
+    <col width="44" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -534,40 +534,28 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-035</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>13-Oct-2025</t>
+          <t>05-Oct-2025</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>13-Oct-2026</t>
+          <t>05-Oct-2027</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>344</v>
+        <v>700</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -578,62 +566,25 @@
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
+          <t>YOU ARE LISTED AS ; TECHNICAL SUPPORT TEAM</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
+        </is>
+      </c>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>05-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>05-Oct-2027</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>701</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
       <c r="K4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>YOU ARE LISTED AS ; TECHNICAL SUPPORT TEAM</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Wali Mohammed Sabry Q0538.xlsx
+++ b/Employee_Reports35/Wali Mohammed Sabry Q0538.xlsx
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
